--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Appium\javascript-appium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC75AEE-4E2A-4872-B988-E70DD0179BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A83183-1E78-4BCF-8005-AF7101A9CE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>InstanceURL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>https://truongbao-trials77.com</t>
   </si>
@@ -40,13 +37,19 @@
   </si>
   <si>
     <t>https://truongbao-trials77.orangehrmlive.com</t>
+  </si>
+  <si>
+    <t>truongbao-trials78.orangehrmlive.com</t>
+  </si>
+  <si>
+    <t>https://orangehrmlive.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,10 +58,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="36"/>
       <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Franklin Gothic Demi Cond"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Franklin Gothic Demi Cond"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,11 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,40 +376,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="82.44140625" customWidth="1"/>
+    <col min="1" max="1" width="152.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="47.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="47.4" x14ac:dyDescent="0.95">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="47.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:1" ht="47.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:1" ht="47.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:1" ht="47.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
